--- a/Docs/Tablas Lab 4 Maquina 2.xlsx
+++ b/Docs/Tablas Lab 4 Maquina 2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 04 - Ordenamientos Iterativos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianadiaz/Downloads/LAB 4/LabSorts-S04-G07/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3E197636-5D23-49AC-AB0F-C814FF421F77}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" activeTab="5" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -20,9 +19,15 @@
     <sheet name="Graf Selection Sort" sheetId="10" r:id="rId5"/>
     <sheet name="Graf Shell Sort" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -83,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -143,6 +148,9 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,9 +465,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -490,7 +498,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-419" sz="1800" b="1">
+              <a:rPr lang="x-none" sz="1800" b="1">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Comparación de rendimiento ARRAYLIST</a:t>
@@ -501,6 +509,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -526,7 +535,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -584,10 +593,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.071011575094107"/>
+                  <c:y val="0.0986936370414367"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -613,7 +629,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -625,34 +641,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,41 +679,29 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>988.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>3867.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>15574.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>55075.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>241379.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>919653.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -756,6 +760,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -781,7 +786,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -793,34 +798,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -832,40 +837,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>943.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3827.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>15657.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>64752.74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>273979.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>1.08810477E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -919,10 +912,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.00586767124313458"/>
+                  <c:y val="0.0599566765521096"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -948,7 +947,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -960,34 +959,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,40 +998,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>55.39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>117.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>243.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>606.97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>1330.29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>3122.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>7263.97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>17628.31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>45064.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -1046,12 +1042,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="696671312"/>
-        <c:axId val="1833162896"/>
+        <c:axId val="-895981696"/>
+        <c:axId val="-895978304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="696671312"/>
+        <c:axId val="-895981696"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1101,6 +1098,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1126,7 +1124,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1164,16 +1162,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833162896"/>
+        <c:crossAx val="-895978304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1833162896"/>
+        <c:axId val="-895978304"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1223,6 +1222,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1248,7 +1248,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1286,10 +1286,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="696671312"/>
+        <c:crossAx val="-895981696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1303,6 +1303,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1328,20 +1329,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1365,16 +1366,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1405,7 +1406,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-419" sz="1800" b="1">
+              <a:rPr lang="x-none" sz="1800" b="1">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Comparación de rendimiento LINKED_LIST</a:t>
@@ -1416,6 +1417,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1441,7 +1443,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1503,6 +1505,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0326464311326542"/>
+                  <c:y val="0.00408742060824798"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1528,7 +1536,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1540,34 +1548,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,40 +1587,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>65290.128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>526327.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1666,11 +1650,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0444169107545556"/>
+                  <c:y val="0.0306276019220747"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1696,7 +1685,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1708,34 +1697,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>57201.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>466274.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,40 +1712,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>57201.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>466274.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1834,10 +1775,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00379434983338661"/>
+                  <c:y val="0.0121711900819852"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1863,7 +1811,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1875,34 +1823,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,40 +1862,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>3543.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>20680.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>81845.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>351514.18</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.5716721E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1961,12 +1894,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="696671312"/>
-        <c:axId val="1833162896"/>
+        <c:axId val="-895923616"/>
+        <c:axId val="-895919856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="696671312"/>
+        <c:axId val="-895923616"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2016,6 +1950,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2041,7 +1976,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2079,16 +2014,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833162896"/>
+        <c:crossAx val="-895919856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1833162896"/>
+        <c:axId val="-895919856"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2138,6 +2074,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2163,7 +2100,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2201,10 +2138,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="696671312"/>
+        <c:crossAx val="-895923616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2218,6 +2155,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2243,20 +2181,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2280,16 +2218,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2331,6 +2269,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2356,7 +2295,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2419,6 +2358,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10557580260994"/>
+                  <c:y val="0.163030975677169"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2444,7 +2389,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2456,34 +2401,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2494,41 +2439,29 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>988.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>3867.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>15574.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>55075.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>241379.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>919653.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B3D4-4A09-BEFF-C643A08A798B}"/>
             </c:ext>
@@ -2587,6 +2520,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.152249439101872"/>
+                  <c:y val="0.110836853952871"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2612,7 +2551,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2624,34 +2563,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2663,40 +2602,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>65290.128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>526327.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3D4-4A09-BEFF-C643A08A798B}"/>
             </c:ext>
@@ -2710,11 +2625,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1328118000"/>
-        <c:axId val="1328121328"/>
+        <c:axId val="-895879744"/>
+        <c:axId val="-895875984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1328118000"/>
+        <c:axId val="-895879744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2765,6 +2680,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2790,7 +2706,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2828,15 +2744,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328121328"/>
+        <c:crossAx val="-895875984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1328121328"/>
+        <c:axId val="-895875984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2882,6 +2798,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2907,7 +2824,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2945,10 +2862,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328118000"/>
+        <c:crossAx val="-895879744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2962,6 +2879,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2987,20 +2905,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3024,16 +2942,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3070,6 +2988,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3095,7 +3014,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3158,6 +3077,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3183,7 +3103,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3195,34 +3115,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3234,40 +3154,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>943.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3827.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>15657.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>64752.74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>273979.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>1.08810477E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C8DB-422B-A57B-18A87EA382C0}"/>
             </c:ext>
@@ -3326,6 +3234,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3351,7 +3260,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3363,34 +3272,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3402,40 +3311,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>57201.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>466274.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C8DB-422B-A57B-18A87EA382C0}"/>
             </c:ext>
@@ -3449,11 +3334,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1328118000"/>
-        <c:axId val="1328121328"/>
+        <c:axId val="-929678896"/>
+        <c:axId val="-929675136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1328118000"/>
+        <c:axId val="-929678896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3504,6 +3389,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3529,7 +3415,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3567,15 +3453,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328121328"/>
+        <c:crossAx val="-929675136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1328121328"/>
+        <c:axId val="-929675136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3621,6 +3507,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3646,7 +3533,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3684,10 +3571,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328118000"/>
+        <c:crossAx val="-929678896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3701,6 +3588,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3726,20 +3614,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3763,16 +3651,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3809,6 +3697,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3834,7 +3723,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3897,6 +3786,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3922,7 +3812,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3934,34 +3824,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3973,40 +3863,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>55.39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>117.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>243.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>606.97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>1330.29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>3122.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>7263.97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>17628.31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>45064.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1191-4146-AA68-44FCE3413D1D}"/>
             </c:ext>
@@ -4065,6 +3952,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4090,7 +3978,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4102,34 +3990,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4141,40 +4029,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>3543.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>20680.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>81845.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>351514.18</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.5716721E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1191-4146-AA68-44FCE3413D1D}"/>
             </c:ext>
@@ -4188,11 +4061,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1328118000"/>
-        <c:axId val="1328121328"/>
+        <c:axId val="-929624272"/>
+        <c:axId val="-929620512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1328118000"/>
+        <c:axId val="-929624272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4243,6 +4116,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4268,7 +4142,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4306,15 +4180,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328121328"/>
+        <c:crossAx val="-929620512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1328121328"/>
+        <c:axId val="-929620512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4360,6 +4234,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4385,7 +4260,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4423,10 +4298,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328118000"/>
+        <c:crossAx val="-929624272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4440,6 +4315,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4465,20 +4341,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4502,7 +4378,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -7283,10 +7159,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BF2A59F4-6CD8-490D-818C-7B3BB3F2B140}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7294,10 +7170,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D09CF8B-80E2-4734-A9D4-9F6060F1BA3D}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="109" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7305,10 +7181,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7316,10 +7192,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{662C0436-FCD4-45AD-AA7D-093158D92847}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7327,10 +7203,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7341,13 +7217,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8680275" cy="6291743"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7374,13 +7250,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="8680275" cy="6291743"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7407,13 +7283,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="8680275" cy="6291743"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7440,13 +7316,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="8680275" cy="6291743"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7473,13 +7349,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8680275" cy="6291743"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7503,26 +7379,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D11" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Insertion Sort [ms]" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Selection Sort [ms]" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Shell Sort [ms]" dataDxfId="6"/>
+    <tableColumn id="1" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
+    <tableColumn id="2" name="Insertion Sort [ms]" dataDxfId="8"/>
+    <tableColumn id="3" name="Selection Sort [ms]" dataDxfId="7"/>
+    <tableColumn id="4" name="Shell Sort [ms]" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A14:D24" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A14:D24"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Insertion Sort [ms]" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Selection Sort [ms]" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Shell Sort [ms]" dataDxfId="0"/>
+    <tableColumn id="1" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="3"/>
+    <tableColumn id="2" name="Insertion Sort [ms]" dataDxfId="2"/>
+    <tableColumn id="3" name="Selection Sort [ms]" dataDxfId="1"/>
+    <tableColumn id="4" name="Shell Sort [ms]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7824,22 +7700,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.1171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.52734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.76171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -7853,164 +7729,129 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
-      <c r="B2" s="4">
-        <v>10</v>
+      <c r="B2" s="5">
+        <v>988.85</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>943.7</v>
       </c>
       <c r="D2" s="4">
-        <v>4</v>
+        <v>55.39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
       <c r="B3" s="4">
-        <v>20</v>
+        <v>3867.08</v>
       </c>
       <c r="C3" s="4">
-        <v>2</v>
+        <v>3827.65</v>
       </c>
       <c r="D3" s="4">
-        <f>D2+15</f>
-        <v>19</v>
+        <v>117.87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
       <c r="B4" s="4">
-        <v>30</v>
+        <v>15574.41</v>
       </c>
       <c r="C4" s="4">
-        <f>C3+C2</f>
-        <v>3</v>
+        <v>15657.51</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D11" si="0">D3+10</f>
-        <v>29</v>
+        <v>243.85</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
       <c r="B5" s="4">
-        <v>40</v>
+        <v>55075.15</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C11" si="1">C4+C3</f>
-        <v>5</v>
+        <v>64752.74</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>606.97</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
       <c r="B6" s="4">
-        <v>50</v>
+        <v>241379.1</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <v>273979.95</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>1330.29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
       <c r="B7" s="4">
-        <v>60</v>
+        <v>919653.8</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <v>1088104.77</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <v>3122.55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
-      <c r="B8" s="4">
-        <v>70</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <v>7263.97</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
-      <c r="B9" s="4">
-        <v>80</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>79</v>
+        <v>17628.310000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
-      <c r="B10" s="4">
-        <v>90</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>89</v>
+        <v>45064.69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>512000</v>
       </c>
-      <c r="B11" s="4">
-        <v>100</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -8024,162 +7865,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
       <c r="B15" s="4">
-        <v>50</v>
+        <v>65290.127999999997</v>
       </c>
       <c r="C15" s="4">
-        <v>2</v>
+        <v>57201.13</v>
       </c>
       <c r="D15" s="4">
-        <v>35</v>
+        <v>3543.36</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
       <c r="B16" s="4">
-        <v>60</v>
+        <v>526327.23</v>
       </c>
       <c r="C16" s="4">
-        <v>4</v>
+        <v>466274.57</v>
       </c>
       <c r="D16" s="4">
-        <f>D15+43</f>
-        <v>78</v>
+        <v>20680.97</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
-      <c r="B17" s="4">
-        <v>70</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" ref="C17:C24" si="2">C16+C15</f>
-        <v>6</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="4">
-        <f t="shared" ref="D17:D24" si="3">D16+10</f>
-        <v>88</v>
+        <v>81845.149999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
-      <c r="B18" s="4">
-        <v>80</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="4">
-        <f t="shared" si="3"/>
-        <v>98</v>
+        <v>351514.18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
-      <c r="B19" s="4">
-        <v>90</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="3"/>
-        <v>108</v>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5">
+        <v>1571672.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
-      <c r="B20" s="4">
-        <v>100</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
-      <c r="B21" s="4">
-        <v>110</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
-      <c r="B22" s="4">
-        <v>120</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
-      <c r="B23" s="4">
-        <v>130</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>512000</v>
       </c>
-      <c r="B24" s="4">
-        <v>140</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="2"/>
-        <v>178</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="3"/>
-        <v>158</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Tablas Lab 4 Maquina 2.xlsx
+++ b/Docs/Tablas Lab 4 Maquina 2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianadiaz/Downloads/LAB 4/LabSorts-S04-G07/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ESTRUCTURA DE DATOS/LABORATORIOS/LabSorts-S04-G07/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F697B1-7C78-FF4F-89B0-C9CC22DBA5F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -19,25 +20,16 @@
     <sheet name="Graf Selection Sort" sheetId="10" r:id="rId5"/>
     <sheet name="Graf Shell Sort" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -88,8 +80,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,9 +457,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -509,7 +501,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -535,7 +526,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -600,8 +591,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.071011575094107"/>
-                  <c:y val="0.0986936370414367"/>
+                  <c:x val="7.1011575094106993E-2"/>
+                  <c:y val="9.8693637041436702E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -629,7 +620,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -641,34 +632,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -701,7 +692,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -760,7 +751,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -786,7 +776,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -798,34 +788,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,13 +842,13 @@
                   <c:v>273979.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.08810477E6</c:v>
+                  <c:v>1088104.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -918,8 +908,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00586767124313458"/>
-                  <c:y val="0.0599566765521096"/>
+                  <c:x val="5.8676712431345798E-3"/>
+                  <c:y val="5.9956676552109602E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -947,7 +937,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -959,34 +949,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,7 +1009,7 @@
                   <c:v>7263.97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17628.31</c:v>
+                  <c:v>17628.310000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>45064.69</c:v>
@@ -1028,7 +1018,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -1048,7 +1038,7 @@
       <c:valAx>
         <c:axId val="-895981696"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1098,7 +1088,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1124,7 +1113,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1162,7 +1151,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-895978304"/>
@@ -1172,7 +1161,7 @@
       <c:valAx>
         <c:axId val="-895978304"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1222,7 +1211,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1248,11 +1236,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1286,7 +1274,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-895981696"/>
@@ -1303,7 +1291,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1329,20 +1316,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1366,16 +1353,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1417,7 +1404,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1443,7 +1429,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1507,8 +1493,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0326464311326542"/>
-                  <c:y val="0.00408742060824798"/>
+                  <c:x val="-3.2646431132654197E-2"/>
+                  <c:y val="4.0874206082479802E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1536,7 +1522,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1548,34 +1534,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1587,7 +1573,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>65290.128</c:v>
+                  <c:v>65290.127999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>526327.23</c:v>
@@ -1596,7 +1582,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1656,8 +1642,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0444169107545556"/>
-                  <c:y val="0.0306276019220747"/>
+                  <c:x val="4.4416910754555602E-2"/>
+                  <c:y val="3.0627601922074699E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1685,7 +1671,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1721,7 +1707,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1782,8 +1768,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00379434983338661"/>
-                  <c:y val="0.0121711900819852"/>
+                  <c:x val="-3.79434983338661E-3"/>
+                  <c:y val="1.21711900819852E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1811,7 +1797,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1823,34 +1809,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,19 +1854,19 @@
                   <c:v>20680.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81845.15</c:v>
+                  <c:v>81845.149999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>351514.18</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>1.5716721E6</c:v>
+                  <c:v>1571672.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1900,7 +1886,7 @@
       <c:valAx>
         <c:axId val="-895923616"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1950,7 +1936,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1976,7 +1961,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2014,7 +1999,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-895919856"/>
@@ -2024,7 +2009,7 @@
       <c:valAx>
         <c:axId val="-895919856"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2074,7 +2059,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2100,7 +2084,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2138,7 +2122,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-895923616"/>
@@ -2155,7 +2139,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2181,20 +2164,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2218,16 +2201,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2269,7 +2252,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2295,7 +2277,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2361,7 +2343,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.10557580260994"/>
-                  <c:y val="0.163030975677169"/>
+                  <c:y val="0.16303097567716901"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2389,7 +2371,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2401,34 +2383,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2461,7 +2443,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B3D4-4A09-BEFF-C643A08A798B}"/>
             </c:ext>
@@ -2551,7 +2533,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2563,34 +2545,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2602,7 +2584,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>65290.128</c:v>
+                  <c:v>65290.127999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>526327.23</c:v>
@@ -2611,7 +2593,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3D4-4A09-BEFF-C643A08A798B}"/>
             </c:ext>
@@ -2680,7 +2662,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2706,7 +2687,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2744,7 +2725,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-895875984"/>
@@ -2798,7 +2779,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2824,11 +2804,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2862,7 +2842,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-895879744"/>
@@ -2879,7 +2859,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2905,20 +2884,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2942,16 +2921,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2988,7 +2967,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3014,7 +2992,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3077,7 +3055,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3103,7 +3080,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3115,34 +3092,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3169,13 +3146,13 @@
                   <c:v>273979.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.08810477E6</c:v>
+                  <c:v>1088104.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C8DB-422B-A57B-18A87EA382C0}"/>
             </c:ext>
@@ -3234,7 +3211,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3260,7 +3236,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3272,34 +3248,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,7 +3296,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C8DB-422B-A57B-18A87EA382C0}"/>
             </c:ext>
@@ -3389,7 +3365,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3415,7 +3390,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3453,7 +3428,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-929675136"/>
@@ -3507,7 +3482,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3533,7 +3507,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3571,7 +3545,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-929678896"/>
@@ -3588,7 +3562,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3614,20 +3587,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3651,16 +3624,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3697,7 +3670,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3723,7 +3695,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3786,7 +3758,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3812,7 +3783,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3824,34 +3795,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3884,7 +3855,7 @@
                   <c:v>7263.97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17628.31</c:v>
+                  <c:v>17628.310000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>45064.69</c:v>
@@ -3893,7 +3864,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1191-4146-AA68-44FCE3413D1D}"/>
             </c:ext>
@@ -3952,7 +3923,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3978,7 +3948,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3990,34 +3960,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4035,19 +4005,19 @@
                   <c:v>20680.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81845.15</c:v>
+                  <c:v>81845.149999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>351514.18</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>1.5716721E6</c:v>
+                  <c:v>1571672.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1191-4146-AA68-44FCE3413D1D}"/>
             </c:ext>
@@ -4116,7 +4086,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4142,7 +4111,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4180,7 +4149,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-929620512"/>
@@ -4234,7 +4203,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4260,7 +4228,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4298,7 +4266,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-929624272"/>
@@ -4315,7 +4283,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4341,20 +4308,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4378,7 +4345,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -7159,7 +7126,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7170,7 +7137,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0"/>
@@ -7181,7 +7148,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
@@ -7192,7 +7159,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
@@ -7203,7 +7170,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
@@ -7223,7 +7190,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7256,7 +7223,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7289,7 +7256,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7322,7 +7289,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7355,7 +7322,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7379,26 +7346,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
-    <tableColumn id="2" name="Insertion Sort [ms]" dataDxfId="8"/>
-    <tableColumn id="3" name="Selection Sort [ms]" dataDxfId="7"/>
-    <tableColumn id="4" name="Shell Sort [ms]" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Insertion Sort [ms]" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selection Sort [ms]" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Shell Sort [ms]" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A14:D24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A14:D24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="3"/>
-    <tableColumn id="2" name="Insertion Sort [ms]" dataDxfId="2"/>
-    <tableColumn id="3" name="Selection Sort [ms]" dataDxfId="1"/>
-    <tableColumn id="4" name="Shell Sort [ms]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Insertion Sort [ms]" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Selection Sort [ms]" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Shell Sort [ms]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7700,14 +7667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="3" bestFit="1" customWidth="1"/>
@@ -7715,7 +7682,7 @@
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -7729,7 +7696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -7743,7 +7710,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -7757,7 +7724,7 @@
         <v>117.87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
@@ -7771,7 +7738,7 @@
         <v>243.85</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -7785,7 +7752,7 @@
         <v>606.97</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
@@ -7799,7 +7766,7 @@
         <v>1330.29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
@@ -7813,7 +7780,7 @@
         <v>3122.55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
@@ -7823,7 +7790,7 @@
         <v>7263.97</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
@@ -7833,7 +7800,7 @@
         <v>17628.310000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
@@ -7843,7 +7810,7 @@
         <v>45064.69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>512000</v>
       </c>
@@ -7851,7 +7818,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="16">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -7865,7 +7832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -7879,7 +7846,7 @@
         <v>3543.36</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
@@ -7893,7 +7860,7 @@
         <v>20680.97</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
@@ -7903,7 +7870,7 @@
         <v>81845.149999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
@@ -7913,7 +7880,7 @@
         <v>351514.18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
@@ -7923,7 +7890,7 @@
         <v>1571672.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
@@ -7931,7 +7898,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
@@ -7939,7 +7906,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
@@ -7947,7 +7914,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
@@ -7955,7 +7922,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>512000</v>
       </c>
@@ -7982,6 +7949,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="04b510ef1bc187d79b842c792d256c41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9049981c3eb1ee76226ec9e2f8ecd7b4" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -8192,12 +8165,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
@@ -8207,6 +8174,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03EB27C0-F9F6-4037-B95E-326B818673EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8223,13 +8199,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Tablas Lab 4 Maquina 2.xlsx
+++ b/Docs/Tablas Lab 4 Maquina 2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ESTRUCTURA DE DATOS/LABORATORIOS/LabSorts-S04-G07/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianadiaz/Downloads/LAB 4/LabSorts-S04-G07/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F697B1-7C78-FF4F-89B0-C9CC22DBA5F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -20,16 +19,16 @@
     <sheet name="Graf Selection Sort" sheetId="10" r:id="rId5"/>
     <sheet name="Graf Shell Sort" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -80,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,9 +456,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -501,6 +500,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -526,7 +526,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -591,8 +591,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.1011575094106993E-2"/>
-                  <c:y val="9.8693637041436702E-2"/>
+                  <c:x val="0.071011575094107"/>
+                  <c:y val="0.0986936370414367"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -620,7 +620,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -632,34 +632,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,7 +692,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -751,6 +751,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -776,7 +777,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -788,34 +789,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -842,13 +843,13 @@
                   <c:v>273979.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1088104.77</c:v>
+                  <c:v>1.08810477E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -908,8 +909,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.8676712431345798E-3"/>
-                  <c:y val="5.9956676552109602E-2"/>
+                  <c:x val="0.00586767124313458"/>
+                  <c:y val="0.0599566765521096"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -937,7 +938,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -949,34 +950,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1009,7 +1010,7 @@
                   <c:v>7263.97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17628.310000000001</c:v>
+                  <c:v>17628.31</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>45064.69</c:v>
@@ -1018,7 +1019,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -1032,13 +1033,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-895981696"/>
-        <c:axId val="-895978304"/>
+        <c:axId val="378516016"/>
+        <c:axId val="422892816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-895981696"/>
+        <c:axId val="378516016"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1088,6 +1089,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1113,7 +1115,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1151,17 +1153,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-895978304"/>
+        <c:crossAx val="422892816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-895978304"/>
+        <c:axId val="422892816"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1211,6 +1213,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1236,7 +1239,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1274,10 +1277,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-895981696"/>
+        <c:crossAx val="378516016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1291,6 +1294,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1316,20 +1320,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1353,16 +1357,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1404,6 +1408,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1429,7 +1434,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1493,8 +1498,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.2646431132654197E-2"/>
-                  <c:y val="4.0874206082479802E-3"/>
+                  <c:x val="-0.0326464311326542"/>
+                  <c:y val="0.00408742060824798"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1522,7 +1527,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1534,34 +1539,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,7 +1578,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>65290.127999999997</c:v>
+                  <c:v>65290.128</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>526327.23</c:v>
@@ -1582,7 +1587,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1642,8 +1647,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.4416910754555602E-2"/>
-                  <c:y val="3.0627601922074699E-2"/>
+                  <c:x val="0.0444169107545556"/>
+                  <c:y val="0.0306276019220747"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1671,7 +1676,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1707,7 +1712,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1768,8 +1773,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.79434983338661E-3"/>
-                  <c:y val="1.21711900819852E-2"/>
+                  <c:x val="-0.00379434983338661"/>
+                  <c:y val="0.0121711900819852"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1797,7 +1802,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1809,34 +1814,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1854,19 +1859,19 @@
                   <c:v>20680.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81845.149999999994</c:v>
+                  <c:v>81845.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>351514.18</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>1571672.1</c:v>
+                  <c:v>1.5716721E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1880,13 +1885,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-895923616"/>
-        <c:axId val="-895919856"/>
+        <c:axId val="453936016"/>
+        <c:axId val="453758656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-895923616"/>
+        <c:axId val="453936016"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1936,6 +1941,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1961,7 +1967,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1999,17 +2005,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-895919856"/>
+        <c:crossAx val="453758656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-895919856"/>
+        <c:axId val="453758656"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2059,6 +2065,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2084,7 +2091,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2122,10 +2129,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-895923616"/>
+        <c:crossAx val="453936016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2139,6 +2146,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2164,20 +2172,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2201,16 +2209,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2277,7 +2285,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2343,7 +2351,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.10557580260994"/>
-                  <c:y val="0.16303097567716901"/>
+                  <c:y val="0.163030975677169"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2371,7 +2379,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2383,34 +2391,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2443,7 +2451,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B3D4-4A09-BEFF-C643A08A798B}"/>
             </c:ext>
@@ -2533,7 +2541,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2545,34 +2553,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2584,7 +2592,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>65290.127999999997</c:v>
+                  <c:v>65290.128</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>526327.23</c:v>
@@ -2593,7 +2601,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3D4-4A09-BEFF-C643A08A798B}"/>
             </c:ext>
@@ -2607,11 +2615,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-895879744"/>
-        <c:axId val="-895875984"/>
+        <c:axId val="454483840"/>
+        <c:axId val="421187344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-895879744"/>
+        <c:axId val="454483840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,7 +2695,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2725,15 +2733,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-895875984"/>
+        <c:crossAx val="421187344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-895875984"/>
+        <c:axId val="421187344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2804,7 +2812,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2842,10 +2850,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-895879744"/>
+        <c:crossAx val="454483840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2884,20 +2892,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2921,16 +2929,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2992,7 +3000,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3080,7 +3088,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3092,34 +3100,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3146,13 +3154,13 @@
                   <c:v>273979.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1088104.77</c:v>
+                  <c:v>1.08810477E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C8DB-422B-A57B-18A87EA382C0}"/>
             </c:ext>
@@ -3236,7 +3244,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3248,34 +3256,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3296,7 +3304,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C8DB-422B-A57B-18A87EA382C0}"/>
             </c:ext>
@@ -3310,11 +3318,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-929678896"/>
-        <c:axId val="-929675136"/>
+        <c:axId val="420729616"/>
+        <c:axId val="454466016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-929678896"/>
+        <c:axId val="420729616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3390,7 +3398,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3428,15 +3436,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-929675136"/>
+        <c:crossAx val="454466016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-929675136"/>
+        <c:axId val="454466016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3507,7 +3515,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3545,10 +3553,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-929678896"/>
+        <c:crossAx val="420729616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3587,20 +3595,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3624,16 +3632,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3695,7 +3703,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3783,7 +3791,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3795,34 +3803,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3855,7 +3863,7 @@
                   <c:v>7263.97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17628.310000000001</c:v>
+                  <c:v>17628.31</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>45064.69</c:v>
@@ -3864,7 +3872,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1191-4146-AA68-44FCE3413D1D}"/>
             </c:ext>
@@ -3948,7 +3956,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3960,34 +3968,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4005,19 +4013,19 @@
                   <c:v>20680.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81845.149999999994</c:v>
+                  <c:v>81845.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>351514.18</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>1571672.1</c:v>
+                  <c:v>1.5716721E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1191-4146-AA68-44FCE3413D1D}"/>
             </c:ext>
@@ -4031,11 +4039,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-929624272"/>
-        <c:axId val="-929620512"/>
+        <c:axId val="458228128"/>
+        <c:axId val="458230976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-929624272"/>
+        <c:axId val="458228128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4111,7 +4119,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4149,15 +4157,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-929620512"/>
+        <c:crossAx val="458230976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-929620512"/>
+        <c:axId val="458230976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4228,7 +4236,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4266,10 +4274,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-929624272"/>
+        <c:crossAx val="458228128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4308,20 +4316,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4345,7 +4353,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -7126,7 +7134,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7137,10 +7145,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7148,7 +7156,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
@@ -7159,7 +7167,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
@@ -7170,7 +7178,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
@@ -7184,13 +7192,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8680275" cy="6291743"/>
+    <xdr:ext cx="8674100" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7223,7 +7231,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7256,7 +7264,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7289,7 +7297,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7322,7 +7330,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7346,26 +7354,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Insertion Sort [ms]" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selection Sort [ms]" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Shell Sort [ms]" dataDxfId="6"/>
+    <tableColumn id="1" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
+    <tableColumn id="2" name="Insertion Sort [ms]" dataDxfId="8"/>
+    <tableColumn id="3" name="Selection Sort [ms]" dataDxfId="7"/>
+    <tableColumn id="4" name="Shell Sort [ms]" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A14:D24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A14:D24"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Insertion Sort [ms]" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Selection Sort [ms]" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Shell Sort [ms]" dataDxfId="0"/>
+    <tableColumn id="1" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="3"/>
+    <tableColumn id="2" name="Insertion Sort [ms]" dataDxfId="2"/>
+    <tableColumn id="3" name="Selection Sort [ms]" dataDxfId="1"/>
+    <tableColumn id="4" name="Shell Sort [ms]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7667,14 +7675,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="3" bestFit="1" customWidth="1"/>
@@ -7682,7 +7690,7 @@
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -7696,7 +7704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -7710,7 +7718,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -7724,7 +7732,7 @@
         <v>117.87</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
@@ -7738,7 +7746,7 @@
         <v>243.85</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -7752,7 +7760,7 @@
         <v>606.97</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
@@ -7766,7 +7774,7 @@
         <v>1330.29</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
@@ -7780,7 +7788,7 @@
         <v>3122.55</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
@@ -7790,7 +7798,7 @@
         <v>7263.97</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
@@ -7800,7 +7808,7 @@
         <v>17628.310000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
@@ -7810,7 +7818,7 @@
         <v>45064.69</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>512000</v>
       </c>
@@ -7818,7 +7826,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="16">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -7832,7 +7840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -7846,7 +7854,7 @@
         <v>3543.36</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
@@ -7860,7 +7868,7 @@
         <v>20680.97</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
@@ -7870,7 +7878,7 @@
         <v>81845.149999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
@@ -7880,7 +7888,7 @@
         <v>351514.18</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
@@ -7890,7 +7898,7 @@
         <v>1571672.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
@@ -7898,7 +7906,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
@@ -7906,7 +7914,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
@@ -7914,7 +7922,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
@@ -7922,7 +7930,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>512000</v>
       </c>

--- a/Docs/Tablas Lab 4 Maquina 2.xlsx
+++ b/Docs/Tablas Lab 4 Maquina 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -1033,11 +1033,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="378516016"/>
-        <c:axId val="422892816"/>
+        <c:axId val="-560621728"/>
+        <c:axId val="-559978784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="378516016"/>
+        <c:axId val="-560621728"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1156,12 +1156,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422892816"/>
+        <c:crossAx val="-559978784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422892816"/>
+        <c:axId val="-559978784"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1280,7 +1280,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378516016"/>
+        <c:crossAx val="-560621728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1641,7 +1641,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1766,8 +1767,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1885,11 +1885,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="453936016"/>
-        <c:axId val="453758656"/>
+        <c:axId val="-560352816"/>
+        <c:axId val="-560349696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="453936016"/>
+        <c:axId val="-560352816"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2008,12 +2008,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453758656"/>
+        <c:crossAx val="-560349696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453758656"/>
+        <c:axId val="-560349696"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2132,7 +2132,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453936016"/>
+        <c:crossAx val="-560352816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2260,6 +2260,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2350,8 +2351,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.10557580260994"/>
-                  <c:y val="0.163030975677169"/>
+                  <c:x val="0.105875092321857"/>
+                  <c:y val="0.074992554201594"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2505,8 +2506,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2615,12 +2615,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="454483840"/>
-        <c:axId val="421187344"/>
+        <c:axId val="-528900080"/>
+        <c:axId val="-528896688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="454483840"/>
+        <c:axId val="-528900080"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2670,6 +2671,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2736,13 +2738,14 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421187344"/>
+        <c:crossAx val="-528896688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421187344"/>
+        <c:axId val="-528896688"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2787,6 +2790,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2853,7 +2857,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454483840"/>
+        <c:crossAx val="-528900080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2867,6 +2871,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2975,6 +2980,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3063,6 +3069,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3219,6 +3226,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3318,11 +3326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="420729616"/>
-        <c:axId val="454466016"/>
+        <c:axId val="-554657808"/>
+        <c:axId val="-554566416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="420729616"/>
+        <c:axId val="-554657808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3373,6 +3381,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3439,12 +3448,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454466016"/>
+        <c:crossAx val="-554566416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="454466016"/>
+        <c:axId val="-554566416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3490,6 +3499,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3556,7 +3566,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420729616"/>
+        <c:crossAx val="-554657808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3570,6 +3580,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3678,6 +3689,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3761,11 +3773,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0100046364356901"/>
+                  <c:y val="-0.0197044781704464"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3926,11 +3943,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4039,12 +4056,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="458228128"/>
-        <c:axId val="458230976"/>
+        <c:axId val="-528845664"/>
+        <c:axId val="-528842272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="458228128"/>
+        <c:axId val="-528845664"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4094,6 +4112,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4160,13 +4179,14 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458230976"/>
+        <c:crossAx val="-528842272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="458230976"/>
+        <c:axId val="-528842272"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4211,6 +4231,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4277,7 +4298,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458228128"/>
+        <c:crossAx val="-528845664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4291,6 +4312,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7137,7 +7159,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7148,7 +7170,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0"/>
+    <sheetView zoomScale="109" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7159,7 +7181,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7170,7 +7192,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7181,7 +7203,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7198,7 +7220,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7231,7 +7253,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7258,13 +7280,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8680275" cy="6291743"/>
+    <xdr:ext cx="8663983" cy="6285424"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7291,13 +7313,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8680275" cy="6291743"/>
+    <xdr:ext cx="8663983" cy="6285424"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7324,13 +7346,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8680275" cy="6291743"/>
+    <xdr:ext cx="8663983" cy="6285424"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/Docs/Tablas Lab 4 Maquina 2.xlsx
+++ b/Docs/Tablas Lab 4 Maquina 2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianadiaz/Downloads/LAB 4/LabSorts-S04-G07/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ESTRUCTURA DE DATOS/LABORATORIOS/LabSorts-S04-G07/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D3AAF7-2328-8E4F-888D-0D4589BCC428}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -19,16 +20,16 @@
     <sheet name="Graf Selection Sort" sheetId="10" r:id="rId5"/>
     <sheet name="Graf Shell Sort" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -79,8 +80,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,9 +457,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -500,7 +501,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -526,7 +526,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -591,8 +591,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.071011575094107"/>
-                  <c:y val="0.0986936370414367"/>
+                  <c:x val="7.1011575094106993E-2"/>
+                  <c:y val="9.8693637041436702E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -620,7 +620,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -632,34 +632,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,7 +692,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -751,7 +751,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -777,7 +776,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -789,34 +788,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,13 +842,13 @@
                   <c:v>273979.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.08810477E6</c:v>
+                  <c:v>1088104.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -909,8 +908,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00586767124313458"/>
-                  <c:y val="0.0599566765521096"/>
+                  <c:x val="5.8676712431345798E-3"/>
+                  <c:y val="5.9956676552109602E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -938,7 +937,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -950,34 +949,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,7 +1009,7 @@
                   <c:v>7263.97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17628.31</c:v>
+                  <c:v>17628.310000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>45064.69</c:v>
@@ -1019,7 +1018,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -1039,7 +1038,7 @@
       <c:valAx>
         <c:axId val="-560621728"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1089,7 +1088,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1115,7 +1113,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1153,7 +1151,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-559978784"/>
@@ -1163,7 +1161,7 @@
       <c:valAx>
         <c:axId val="-559978784"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1213,7 +1211,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1239,7 +1236,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1277,7 +1274,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-560621728"/>
@@ -1294,7 +1291,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1320,20 +1316,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1357,16 +1353,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1408,7 +1404,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1434,7 +1429,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1498,8 +1493,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0326464311326542"/>
-                  <c:y val="0.00408742060824798"/>
+                  <c:x val="-3.2646431132654197E-2"/>
+                  <c:y val="4.0874206082479802E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1527,7 +1522,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1539,34 +1534,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,7 +1573,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>65290.128</c:v>
+                  <c:v>65290.127999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>526327.23</c:v>
@@ -1587,7 +1582,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1648,8 +1643,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0444169107545556"/>
-                  <c:y val="0.0306276019220747"/>
+                  <c:x val="4.4416910754555602E-2"/>
+                  <c:y val="3.0627601922074699E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1677,7 +1672,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1713,7 +1708,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1773,8 +1768,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00379434983338661"/>
-                  <c:y val="0.0121711900819852"/>
+                  <c:x val="-3.79434983338661E-3"/>
+                  <c:y val="1.21711900819852E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1802,7 +1797,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1814,34 +1809,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1859,19 +1854,19 @@
                   <c:v>20680.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81845.15</c:v>
+                  <c:v>81845.149999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>351514.18</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>1.5716721E6</c:v>
+                  <c:v>1571672.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1891,7 +1886,7 @@
       <c:valAx>
         <c:axId val="-560352816"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1941,7 +1936,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1967,7 +1961,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2005,7 +1999,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-560349696"/>
@@ -2015,7 +2009,7 @@
       <c:valAx>
         <c:axId val="-560349696"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2065,7 +2059,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2091,7 +2084,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2129,7 +2122,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-560352816"/>
@@ -2146,7 +2139,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2172,20 +2164,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2209,16 +2201,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2260,7 +2252,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2286,7 +2277,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2352,7 +2343,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.105875092321857"/>
-                  <c:y val="0.074992554201594"/>
+                  <c:y val="7.4992554201593994E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2380,7 +2371,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2392,34 +2383,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2452,7 +2443,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B3D4-4A09-BEFF-C643A08A798B}"/>
             </c:ext>
@@ -2541,7 +2532,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2553,34 +2544,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,7 +2583,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>65290.128</c:v>
+                  <c:v>65290.127999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>526327.23</c:v>
@@ -2601,7 +2592,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3D4-4A09-BEFF-C643A08A798B}"/>
             </c:ext>
@@ -2621,7 +2612,7 @@
       <c:valAx>
         <c:axId val="-528900080"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2671,7 +2662,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2697,7 +2687,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2735,7 +2725,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-528896688"/>
@@ -2745,7 +2735,7 @@
       <c:valAx>
         <c:axId val="-528896688"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2790,7 +2780,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2816,7 +2805,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2854,7 +2843,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-528900080"/>
@@ -2871,7 +2860,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2897,20 +2885,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2934,16 +2922,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2980,7 +2968,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3006,7 +2993,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3069,7 +3056,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3095,7 +3081,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3107,34 +3093,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3161,13 +3147,13 @@
                   <c:v>273979.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.08810477E6</c:v>
+                  <c:v>1088104.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C8DB-422B-A57B-18A87EA382C0}"/>
             </c:ext>
@@ -3226,7 +3212,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3252,7 +3237,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3264,34 +3249,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3312,7 +3297,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C8DB-422B-A57B-18A87EA382C0}"/>
             </c:ext>
@@ -3381,7 +3366,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3407,7 +3391,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3445,7 +3429,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-554566416"/>
@@ -3499,7 +3483,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3525,7 +3508,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3563,7 +3546,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-554657808"/>
@@ -3580,7 +3563,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3606,20 +3588,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3643,16 +3625,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3689,7 +3671,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3715,7 +3696,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3779,8 +3760,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0100046364356901"/>
-                  <c:y val="-0.0197044781704464"/>
+                  <c:x val="1.0004636435690099E-2"/>
+                  <c:y val="-1.9704478170446401E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3808,7 +3789,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3820,34 +3801,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3880,7 +3861,7 @@
                   <c:v>7263.97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17628.31</c:v>
+                  <c:v>17628.310000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>45064.69</c:v>
@@ -3889,7 +3870,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1191-4146-AA68-44FCE3413D1D}"/>
             </c:ext>
@@ -3947,7 +3928,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3973,7 +3953,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3985,34 +3965,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4030,19 +4010,19 @@
                   <c:v>20680.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81845.15</c:v>
+                  <c:v>81845.149999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>351514.18</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>1.5716721E6</c:v>
+                  <c:v>1571672.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1191-4146-AA68-44FCE3413D1D}"/>
             </c:ext>
@@ -4062,7 +4042,7 @@
       <c:valAx>
         <c:axId val="-528845664"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4112,7 +4092,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4138,7 +4117,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4176,7 +4155,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-528842272"/>
@@ -4186,7 +4165,7 @@
       <c:valAx>
         <c:axId val="-528842272"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4231,7 +4210,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4257,7 +4235,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4295,7 +4273,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-528845664"/>
@@ -4312,7 +4290,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4338,20 +4315,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4375,7 +4352,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -7156,7 +7133,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0"/>
@@ -7167,7 +7144,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0"/>
@@ -7178,10 +7155,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7189,10 +7166,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7200,10 +7177,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7214,13 +7191,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="8676640" cy="6289040"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7253,7 +7230,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7280,13 +7257,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663983" cy="6285424"/>
+    <xdr:ext cx="8674919" cy="6288548"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7313,13 +7290,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663983" cy="6285424"/>
+    <xdr:ext cx="8674919" cy="6288548"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7346,13 +7323,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663983" cy="6285424"/>
+    <xdr:ext cx="8674919" cy="6288548"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7376,26 +7353,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
-    <tableColumn id="2" name="Insertion Sort [ms]" dataDxfId="8"/>
-    <tableColumn id="3" name="Selection Sort [ms]" dataDxfId="7"/>
-    <tableColumn id="4" name="Shell Sort [ms]" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Insertion Sort [ms]" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selection Sort [ms]" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Shell Sort [ms]" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A14:D24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A14:D24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="3"/>
-    <tableColumn id="2" name="Insertion Sort [ms]" dataDxfId="2"/>
-    <tableColumn id="3" name="Selection Sort [ms]" dataDxfId="1"/>
-    <tableColumn id="4" name="Shell Sort [ms]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Insertion Sort [ms]" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Selection Sort [ms]" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Shell Sort [ms]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7697,14 +7674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="3" bestFit="1" customWidth="1"/>
@@ -7712,7 +7689,7 @@
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -7726,7 +7703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -7740,7 +7717,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -7754,7 +7731,7 @@
         <v>117.87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
@@ -7768,7 +7745,7 @@
         <v>243.85</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -7782,7 +7759,7 @@
         <v>606.97</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
@@ -7796,7 +7773,7 @@
         <v>1330.29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
@@ -7810,7 +7787,7 @@
         <v>3122.55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
@@ -7820,7 +7797,7 @@
         <v>7263.97</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
@@ -7830,7 +7807,7 @@
         <v>17628.310000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
@@ -7840,7 +7817,7 @@
         <v>45064.69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>512000</v>
       </c>
@@ -7848,7 +7825,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="16">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -7862,7 +7839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -7876,7 +7853,7 @@
         <v>3543.36</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
@@ -7890,7 +7867,7 @@
         <v>20680.97</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
@@ -7900,7 +7877,7 @@
         <v>81845.149999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
@@ -7910,7 +7887,7 @@
         <v>351514.18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
@@ -7920,7 +7897,7 @@
         <v>1571672.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
@@ -7928,7 +7905,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
@@ -7936,7 +7913,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
@@ -7944,7 +7921,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
@@ -7952,7 +7929,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>512000</v>
       </c>
@@ -7970,21 +7947,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="04b510ef1bc187d79b842c792d256c41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9049981c3eb1ee76226ec9e2f8ecd7b4" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -8195,24 +8157,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03EB27C0-F9F6-4037-B95E-326B818673EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8229,4 +8189,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Tablas Lab 4 Maquina 2.xlsx
+++ b/Docs/Tablas Lab 4 Maquina 2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ESTRUCTURA DE DATOS/LABORATORIOS/LabSorts-S04-G07/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianadiaz/Downloads/LAB 4/LabSorts-S04-G07/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D3AAF7-2328-8E4F-888D-0D4589BCC428}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -20,16 +19,16 @@
     <sheet name="Graf Selection Sort" sheetId="10" r:id="rId5"/>
     <sheet name="Graf Shell Sort" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -80,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,9 +456,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -501,6 +500,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -526,7 +526,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -591,8 +591,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.1011575094106993E-2"/>
-                  <c:y val="9.8693637041436702E-2"/>
+                  <c:x val="0.071011575094107"/>
+                  <c:y val="0.0986936370414367"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -620,7 +620,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -632,34 +632,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,7 +692,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -751,6 +751,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -776,7 +777,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -788,34 +789,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -842,13 +843,13 @@
                   <c:v>273979.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1088104.77</c:v>
+                  <c:v>1.08810477E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -908,8 +909,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.8676712431345798E-3"/>
-                  <c:y val="5.9956676552109602E-2"/>
+                  <c:x val="0.00586767124313458"/>
+                  <c:y val="0.0599566765521096"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -937,7 +938,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -949,34 +950,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1009,7 +1010,7 @@
                   <c:v>7263.97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17628.310000000001</c:v>
+                  <c:v>17628.31</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>45064.69</c:v>
@@ -1018,7 +1019,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -1032,13 +1033,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-560621728"/>
-        <c:axId val="-559978784"/>
+        <c:axId val="149957200"/>
+        <c:axId val="149960320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-560621728"/>
+        <c:axId val="149957200"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1088,6 +1089,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1113,7 +1115,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1151,17 +1153,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-559978784"/>
+        <c:crossAx val="149960320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-559978784"/>
+        <c:axId val="149960320"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1211,6 +1213,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1236,7 +1239,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1274,10 +1277,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-560621728"/>
+        <c:crossAx val="149957200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1291,6 +1294,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1316,20 +1320,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1353,16 +1357,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1404,6 +1408,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1429,7 +1434,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1487,14 +1492,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.2646431132654197E-2"/>
-                  <c:y val="4.0874206082479802E-3"/>
+                  <c:x val="-0.210546324857219"/>
+                  <c:y val="0.0991289695081315"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1522,7 +1528,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1534,34 +1540,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,7 +1579,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>65290.127999999997</c:v>
+                  <c:v>65290.128</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>526327.23</c:v>
@@ -1582,7 +1588,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1643,8 +1649,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.4416910754555602E-2"/>
-                  <c:y val="3.0627601922074699E-2"/>
+                  <c:x val="0.0444169107545556"/>
+                  <c:y val="0.0306276019220747"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1672,7 +1678,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1708,7 +1714,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1768,8 +1774,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.79434983338661E-3"/>
-                  <c:y val="1.21711900819852E-2"/>
+                  <c:x val="-0.00379434983338661"/>
+                  <c:y val="0.0121711900819852"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1797,7 +1803,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1809,34 +1815,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1854,19 +1860,19 @@
                   <c:v>20680.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81845.149999999994</c:v>
+                  <c:v>81845.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>351514.18</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>1571672.1</c:v>
+                  <c:v>1.5716721E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1880,13 +1886,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-560352816"/>
-        <c:axId val="-560349696"/>
+        <c:axId val="31469776"/>
+        <c:axId val="32355744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-560352816"/>
+        <c:axId val="31469776"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1936,6 +1942,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1961,7 +1968,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1999,17 +2006,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-560349696"/>
+        <c:crossAx val="32355744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-560349696"/>
+        <c:axId val="32355744"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2059,6 +2066,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2084,7 +2092,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2122,10 +2130,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-560352816"/>
+        <c:crossAx val="31469776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2139,6 +2147,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2164,20 +2173,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2201,16 +2210,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2252,6 +2261,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2277,7 +2287,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2343,7 +2353,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.105875092321857"/>
-                  <c:y val="7.4992554201593994E-2"/>
+                  <c:y val="0.074992554201594"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2371,7 +2381,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2383,34 +2393,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2443,7 +2453,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B3D4-4A09-BEFF-C643A08A798B}"/>
             </c:ext>
@@ -2532,7 +2542,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2544,34 +2554,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2583,7 +2593,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>65290.127999999997</c:v>
+                  <c:v>65290.128</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>526327.23</c:v>
@@ -2592,7 +2602,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3D4-4A09-BEFF-C643A08A798B}"/>
             </c:ext>
@@ -2606,13 +2616,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-528900080"/>
-        <c:axId val="-528896688"/>
+        <c:axId val="150003840"/>
+        <c:axId val="150007232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-528900080"/>
+        <c:axId val="150003840"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2662,6 +2672,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2687,7 +2698,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2725,17 +2736,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-528896688"/>
+        <c:crossAx val="150007232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-528896688"/>
+        <c:axId val="150007232"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2780,6 +2791,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2805,7 +2817,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2843,10 +2855,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-528900080"/>
+        <c:crossAx val="150003840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2860,6 +2872,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2885,20 +2898,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2922,16 +2935,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2968,6 +2981,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2993,7 +3007,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3056,6 +3070,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0318909905524976"/>
+                  <c:y val="0.207981673153633"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3081,7 +3101,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3093,34 +3113,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3147,13 +3167,13 @@
                   <c:v>273979.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1088104.77</c:v>
+                  <c:v>1.08810477E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C8DB-422B-A57B-18A87EA382C0}"/>
             </c:ext>
@@ -3212,6 +3232,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.185375594573535"/>
+                  <c:y val="0.0640407075163107"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3237,7 +3263,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3249,34 +3275,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3297,7 +3323,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C8DB-422B-A57B-18A87EA382C0}"/>
             </c:ext>
@@ -3311,12 +3337,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-554657808"/>
-        <c:axId val="-554566416"/>
+        <c:axId val="150038976"/>
+        <c:axId val="150042368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-554657808"/>
+        <c:axId val="150038976"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3366,6 +3393,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3391,7 +3419,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3429,16 +3457,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-554566416"/>
+        <c:crossAx val="150042368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-554566416"/>
+        <c:axId val="150042368"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3483,6 +3512,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3508,7 +3538,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3546,10 +3576,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-554657808"/>
+        <c:crossAx val="150038976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3563,6 +3593,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3588,20 +3619,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3625,16 +3656,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3671,6 +3702,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3696,7 +3728,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3760,8 +3792,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.0004636435690099E-2"/>
-                  <c:y val="-1.9704478170446401E-2"/>
+                  <c:x val="0.0100046364356901"/>
+                  <c:y val="-0.0197044781704464"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3789,7 +3821,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3801,34 +3833,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3861,7 +3893,7 @@
                   <c:v>7263.97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17628.310000000001</c:v>
+                  <c:v>17628.31</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>45064.69</c:v>
@@ -3870,7 +3902,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1191-4146-AA68-44FCE3413D1D}"/>
             </c:ext>
@@ -3928,6 +3960,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3953,7 +3986,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3965,34 +3998,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4010,19 +4043,19 @@
                   <c:v>20680.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81845.149999999994</c:v>
+                  <c:v>81845.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>351514.18</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>1571672.1</c:v>
+                  <c:v>1.5716721E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1191-4146-AA68-44FCE3413D1D}"/>
             </c:ext>
@@ -4036,13 +4069,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-528845664"/>
-        <c:axId val="-528842272"/>
+        <c:axId val="150110144"/>
+        <c:axId val="150113536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-528845664"/>
+        <c:axId val="150110144"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4092,6 +4125,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4117,7 +4151,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4155,17 +4189,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-528842272"/>
+        <c:crossAx val="150113536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-528842272"/>
+        <c:axId val="150113536"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4210,6 +4244,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4235,7 +4270,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4273,10 +4308,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-528845664"/>
+        <c:crossAx val="150110144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4290,6 +4325,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4315,20 +4351,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4352,7 +4388,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -7133,10 +7169,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
+    <sheetView zoomScale="106" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7144,10 +7180,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7155,10 +7191,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7166,10 +7202,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7177,10 +7213,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7197,7 +7233,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7230,7 +7266,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7257,13 +7293,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674919" cy="6288548"/>
+    <xdr:ext cx="8663983" cy="6285424"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7290,13 +7326,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674919" cy="6288548"/>
+    <xdr:ext cx="8663983" cy="6285424"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7323,13 +7359,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674919" cy="6288548"/>
+    <xdr:ext cx="8663983" cy="6285424"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7353,26 +7389,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Insertion Sort [ms]" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selection Sort [ms]" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Shell Sort [ms]" dataDxfId="6"/>
+    <tableColumn id="1" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
+    <tableColumn id="2" name="Insertion Sort [ms]" dataDxfId="8"/>
+    <tableColumn id="3" name="Selection Sort [ms]" dataDxfId="7"/>
+    <tableColumn id="4" name="Shell Sort [ms]" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A14:D24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A14:D24"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Insertion Sort [ms]" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Selection Sort [ms]" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Shell Sort [ms]" dataDxfId="0"/>
+    <tableColumn id="1" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="3"/>
+    <tableColumn id="2" name="Insertion Sort [ms]" dataDxfId="2"/>
+    <tableColumn id="3" name="Selection Sort [ms]" dataDxfId="1"/>
+    <tableColumn id="4" name="Shell Sort [ms]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7674,14 +7710,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="3" bestFit="1" customWidth="1"/>
@@ -7689,7 +7725,7 @@
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -7703,7 +7739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -7717,7 +7753,7 @@
         <v>55.39</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -7731,7 +7767,7 @@
         <v>117.87</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
@@ -7745,7 +7781,7 @@
         <v>243.85</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -7759,7 +7795,7 @@
         <v>606.97</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
@@ -7773,7 +7809,7 @@
         <v>1330.29</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
@@ -7787,7 +7823,7 @@
         <v>3122.55</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
@@ -7797,7 +7833,7 @@
         <v>7263.97</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
@@ -7807,7 +7843,7 @@
         <v>17628.310000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
@@ -7817,7 +7853,7 @@
         <v>45064.69</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>512000</v>
       </c>
@@ -7825,7 +7861,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="16">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -7839,7 +7875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -7853,7 +7889,7 @@
         <v>3543.36</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
@@ -7867,7 +7903,7 @@
         <v>20680.97</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
@@ -7877,7 +7913,7 @@
         <v>81845.149999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
@@ -7887,7 +7923,7 @@
         <v>351514.18</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
@@ -7897,7 +7933,7 @@
         <v>1571672.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
@@ -7905,7 +7941,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
@@ -7913,7 +7949,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
@@ -7921,7 +7957,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
@@ -7929,7 +7965,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>512000</v>
       </c>

--- a/Docs/Tablas Lab 4 Maquina 2.xlsx
+++ b/Docs/Tablas Lab 4 Maquina 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -1033,11 +1033,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="149957200"/>
-        <c:axId val="149960320"/>
+        <c:axId val="193318688"/>
+        <c:axId val="193321808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149957200"/>
+        <c:axId val="193318688"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1156,12 +1156,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149960320"/>
+        <c:crossAx val="193321808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149960320"/>
+        <c:axId val="193321808"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1280,7 +1280,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149957200"/>
+        <c:crossAx val="193318688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1886,11 +1886,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="31469776"/>
-        <c:axId val="32355744"/>
+        <c:axId val="150572880"/>
+        <c:axId val="150576272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31469776"/>
+        <c:axId val="150572880"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2009,12 +2009,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32355744"/>
+        <c:crossAx val="150576272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32355744"/>
+        <c:axId val="150576272"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2133,7 +2133,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31469776"/>
+        <c:crossAx val="150572880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2616,11 +2616,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150003840"/>
-        <c:axId val="150007232"/>
+        <c:axId val="143926768"/>
+        <c:axId val="32372128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150003840"/>
+        <c:axId val="143926768"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2739,12 +2739,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150007232"/>
+        <c:crossAx val="32372128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150007232"/>
+        <c:axId val="32372128"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2858,7 +2858,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150003840"/>
+        <c:crossAx val="143926768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3337,11 +3337,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150038976"/>
-        <c:axId val="150042368"/>
+        <c:axId val="150254400"/>
+        <c:axId val="150257792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150038976"/>
+        <c:axId val="150254400"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3460,12 +3460,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150042368"/>
+        <c:crossAx val="150257792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150042368"/>
+        <c:axId val="150257792"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3579,7 +3579,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150038976"/>
+        <c:crossAx val="150254400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4069,11 +4069,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150110144"/>
-        <c:axId val="150113536"/>
+        <c:axId val="67903440"/>
+        <c:axId val="122188416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150110144"/>
+        <c:axId val="67903440"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4192,12 +4192,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150113536"/>
+        <c:crossAx val="122188416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150113536"/>
+        <c:axId val="122188416"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4311,7 +4311,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150110144"/>
+        <c:crossAx val="67903440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7183,7 +7183,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0"/>
+    <sheetView zoomScale="109" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7216,7 +7216,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7227,13 +7227,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8676640" cy="6289040"/>
+    <xdr:ext cx="8674340" cy="6290094"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7266,7 +7266,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7299,7 +7299,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7332,7 +7332,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7365,7 +7365,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/Docs/Tablas Lab 4 Maquina 2.xlsx
+++ b/Docs/Tablas Lab 4 Maquina 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -1033,11 +1033,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193318688"/>
-        <c:axId val="193321808"/>
+        <c:axId val="193916544"/>
+        <c:axId val="193919936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193318688"/>
+        <c:axId val="193916544"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1156,12 +1156,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193321808"/>
+        <c:crossAx val="193919936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193321808"/>
+        <c:axId val="193919936"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1280,7 +1280,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193318688"/>
+        <c:crossAx val="193916544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1886,11 +1886,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150572880"/>
-        <c:axId val="150576272"/>
+        <c:axId val="195103792"/>
+        <c:axId val="195107184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150572880"/>
+        <c:axId val="195103792"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2009,12 +2009,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150576272"/>
+        <c:crossAx val="195107184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150576272"/>
+        <c:axId val="195107184"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2133,7 +2133,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150572880"/>
+        <c:crossAx val="195103792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2507,7 +2507,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2616,11 +2617,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="143926768"/>
-        <c:axId val="32372128"/>
+        <c:axId val="193943104"/>
+        <c:axId val="193946496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="143926768"/>
+        <c:axId val="193943104"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2739,12 +2740,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32372128"/>
+        <c:crossAx val="193946496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32372128"/>
+        <c:axId val="193946496"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2858,7 +2859,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143926768"/>
+        <c:crossAx val="193943104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3337,11 +3338,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150254400"/>
-        <c:axId val="150257792"/>
+        <c:axId val="195146016"/>
+        <c:axId val="195149776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150254400"/>
+        <c:axId val="195146016"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3460,12 +3461,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150257792"/>
+        <c:crossAx val="195149776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150257792"/>
+        <c:axId val="195149776"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3579,7 +3580,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150254400"/>
+        <c:crossAx val="195146016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4069,11 +4070,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="67903440"/>
-        <c:axId val="122188416"/>
+        <c:axId val="195196864"/>
+        <c:axId val="195200624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67903440"/>
+        <c:axId val="195196864"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4192,12 +4193,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122188416"/>
+        <c:crossAx val="195200624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="122188416"/>
+        <c:axId val="195200624"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4311,7 +4312,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67903440"/>
+        <c:crossAx val="195196864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7172,7 +7173,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7216,7 +7217,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7233,7 +7234,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7266,7 +7267,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7299,7 +7300,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7332,7 +7333,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7359,13 +7360,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663983" cy="6285424"/>
+    <xdr:ext cx="8674919" cy="6288548"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
